--- a/Excel/FixedFloor.xlsx
+++ b/Excel/FixedFloor.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Floor</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">Floor_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floor_2</t>
   </si>
 </sst>
 </file>
@@ -110,8 +107,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -304,38 +305,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="A1:B3"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Excel/FixedFloor.xlsx
+++ b/Excel/FixedFloor.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Floor</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">Floor_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor_5</t>
   </si>
 </sst>
 </file>
@@ -308,7 +311,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -327,6 +330,14 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
